--- a/config/config_examples_stats.xlsx
+++ b/config/config_examples_stats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SLETIZIA\OneDrive - NREL\Desktop\PostDoc\Technical\LiDAR\LIDARGO\config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A455C55D-0479-4B0C-890A-93BC1CCF8DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAC4E215-C4C8-4E38-9D9B-19E9A16F3875}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>PARAMETER</t>
   </si>
@@ -93,13 +93,19 @@
   </si>
   <si>
     <t>awaken.rhi.nc</t>
+  </si>
+  <si>
+    <t>awaken.vol.nc</t>
+  </si>
+  <si>
+    <t>250,500,1000,1500</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -126,6 +132,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -161,7 +172,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -178,6 +189,10 @@
     <xf numFmtId="4" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -483,150 +498,203 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I8" sqref="I8"/>
+      <selection pane="topRight" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="31.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="3">
         <v>-2000</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="3">
+        <v>-500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="3">
         <v>2000</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="1">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="B6" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="1">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="B7" s="3">
         <v>750</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B8" s="7">
         <v>300</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="8">
+        <f>127*2.5</f>
+        <v>317.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="B9" s="7">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="8">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B10" s="7">
         <v>50</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="2">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="2">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>13</v>
       </c>
       <c r="B14" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>16</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="C16" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="5" t="s">
         <v>18</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
